--- a/cypress/downloads/Listado de Proyectos con Detalles - 29-04-2024.xlsx
+++ b/cypress/downloads/Listado de Proyectos con Detalles - 29-04-2024.xlsx
@@ -91,7 +91,7 @@
     <x:t>Martin</x:t>
   </x:si>
   <x:si>
-    <x:t>75</x:t>
+    <x:t>74</x:t>
   </x:si>
   <x:si>
     <x:t>Completo</x:t>
@@ -109,55 +109,37 @@
     <x:t>Vivienda Clásica con 2 habitaciones y hall</x:t>
   </x:si>
   <x:si>
-    <x:t>65</x:t>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniela</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Torres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melissa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fulgenzi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gómez</x:t>
   </x:si>
   <x:si>
     <x:t>Vivienda unifamiliar</x:t>
   </x:si>
   <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniela</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Torres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melissa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fulgenzi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gómez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Local Comercial - Panaderia</x:t>
-  </x:si>
-  <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
     <x:t>Local Comercial - Gimnasio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Camilo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martínez</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -221,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0">
-  <x:autoFilter ref="A1:H11"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H8" totalsRowShown="0">
+  <x:autoFilter ref="A1:H8"/>
   <x:tableColumns count="8">
     <x:tableColumn id="1" name="Id de Proyecto"/>
     <x:tableColumn id="2" name="Nombre del Proyecto"/>
@@ -525,7 +507,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H11"/>
+  <x:dimension ref="A1:H8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -682,24 +664,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>9</x:v>
@@ -708,24 +690,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -734,97 +716,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
